--- a/biology/Mycologie/Trémelle/Trémelle.xlsx
+++ b/biology/Mycologie/Trémelle/Trémelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A9melle</t>
+          <t>Trémelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trémelle est un nom vulgaire, issu du genre latin Tremella, qui désignait un regroupement taxinomique désormais caduc de champignons basidiomycètes. Plusieurs espèces conservent néanmoins un nom normalisé formé à partir de ce terme, bien qu'elles ne soient pas apparentées entre elles[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Trémelle est un nom vulgaire, issu du genre latin Tremella, qui désignait un regroupement taxinomique désormais caduc de champignons basidiomycètes. Plusieurs espèces conservent néanmoins un nom normalisé formé à partir de ce terme, bien qu'elles ne soient pas apparentées entre elles,.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A9melle</t>
+          <t>Trémelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Définition et étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les trémelles sont des champignons basidiomycètes à réceptacle gélatineux et irrégulier poussant en hiver sur les branches mortes. Le terme vient du latin tremere, « trembler », et du suffixe -ella, « petit », en référence au comportement de ce carpophore lisse et gélatineuse, tremblotant, qui se déchire difficilement. Son introduction en taxinomie (genre Tremella) remonte à Linné en 1770[3].
-Elles font partie des mycètes communément appelés « champignons gelées » (champignons plus ou moins gélatineux et cérébriformes), parmi lesquels on retrouve les auriculaires (notamment l'oreille de Judas, la Guépinie en helvelle et le beurre noir de sorcière), les dacromycètes (notamment les  Dacrymyces (en) et les calocères)[4],[5]. La consistance gélatineuse de la chair provient de la forte teneur en polysaccharides des parois cellulaires (teneur de 60 à 90 % dans le corps fructifère des espèces du genre Tremella, contre 10 à 30 % chez les autres champignons). Ces macromolécules hydrophiles colloïdales ont en effet la propriété de gonfler au contact de l'eau, ce qui donne un mucilage, sorte de mucus visqueux[6].
-Elles portent le nom vernaculaire de Beurre de sorcière. L'origine de cette expression est probablement liée à des légendes dans les cultures mycophobes qui associent les sorcières aux champignons à la réputation tout aussi sinistre. Selon ces légendes, le beurre de sorcière était une masse gélatineuse apportée aux sorcières par le diable. Si on fouettait ou brûlait le champignon, la sorcière était forcée d'apparaître[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trémelles sont des champignons basidiomycètes à réceptacle gélatineux et irrégulier poussant en hiver sur les branches mortes. Le terme vient du latin tremere, « trembler », et du suffixe -ella, « petit », en référence au comportement de ce carpophore lisse et gélatineuse, tremblotant, qui se déchire difficilement. Son introduction en taxinomie (genre Tremella) remonte à Linné en 1770.
+Elles font partie des mycètes communément appelés « champignons gelées » (champignons plus ou moins gélatineux et cérébriformes), parmi lesquels on retrouve les auriculaires (notamment l'oreille de Judas, la Guépinie en helvelle et le beurre noir de sorcière), les dacromycètes (notamment les  Dacrymyces (en) et les calocères),. La consistance gélatineuse de la chair provient de la forte teneur en polysaccharides des parois cellulaires (teneur de 60 à 90 % dans le corps fructifère des espèces du genre Tremella, contre 10 à 30 % chez les autres champignons). Ces macromolécules hydrophiles colloïdales ont en effet la propriété de gonfler au contact de l'eau, ce qui donne un mucilage, sorte de mucus visqueux.
+Elles portent le nom vernaculaire de Beurre de sorcière. L'origine de cette expression est probablement liée à des légendes dans les cultures mycophobes qui associent les sorcières aux champignons à la réputation tout aussi sinistre. Selon ces légendes, le beurre de sorcière était une masse gélatineuse apportée aux sorcières par le diable. Si on fouettait ou brûlait le champignon, la sorcière était forcée d'apparaître.
 </t>
         </is>
       </c>
